--- a/AbilityInfo.xlsx
+++ b/AbilityInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Runescape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0EFD74-BBF4-40A1-9FEB-8083BBA1C7C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FBF0E-B5AD-4BB1-BA45-1EDFDD6A259A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="1170" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="797">
   <si>
     <t>Name</t>
   </si>
@@ -19436,13 +19436,19 @@
   </si>
   <si>
     <t>Devotion</t>
+  </si>
+  <si>
+    <t>Greater Ricochet</t>
+  </si>
+  <si>
+    <t>Greater Chain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -19490,6 +19496,12 @@
       <sz val="10"/>
       <color rgb="FF3D85C6"/>
       <name val="Inconsolata"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -19554,7 +19566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -19577,6 +19589,8 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19759,6 +19773,12 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF339933"/>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -19771,7 +19791,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A68:AM94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A69:AM96">
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Revolution"/>
@@ -19865,7 +19885,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A100:AM101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A102:AM103">
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Revolution"/>
@@ -19912,7 +19932,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AM66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A41:AM67">
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Revolution"/>
@@ -20006,7 +20026,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A96:AM98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="A98:AM100">
   <tableColumns count="39">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Revolution"/>
@@ -20253,10 +20273,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ105"/>
+  <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -20304,7 +20324,7 @@
     <col min="43" max="43" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:43" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20432,7 +20452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" ht="12.75">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -20560,7 +20580,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" ht="12.75">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -20688,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" ht="12.75">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
@@ -20816,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" ht="12.75">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -20944,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" ht="12.75">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -21072,7 +21092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" ht="12.75">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -21200,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" ht="12.75">
       <c r="A8" s="4" t="s">
         <v>96</v>
       </c>
@@ -21328,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" ht="12.75">
       <c r="A9" s="4" t="s">
         <v>105</v>
       </c>
@@ -21456,7 +21476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" ht="12.75">
       <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
@@ -21584,7 +21604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" ht="12.75">
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
@@ -21712,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" ht="12.75">
       <c r="A12" s="4" t="s">
         <v>129</v>
       </c>
@@ -21840,7 +21860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" ht="12.75">
       <c r="A13" s="4" t="s">
         <v>137</v>
       </c>
@@ -21968,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" ht="12.75">
       <c r="A14" s="4" t="s">
         <v>145</v>
       </c>
@@ -22096,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" ht="12.75">
       <c r="A15" s="4" t="s">
         <v>153</v>
       </c>
@@ -22224,7 +22244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" ht="12.75">
       <c r="A16" s="4" t="s">
         <v>161</v>
       </c>
@@ -22352,7 +22372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" ht="12.75">
       <c r="A17" s="4" t="s">
         <v>169</v>
       </c>
@@ -22480,7 +22500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" ht="12.75">
       <c r="A18" s="4" t="s">
         <v>177</v>
       </c>
@@ -22608,7 +22628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" ht="12.75">
       <c r="A19" s="4" t="s">
         <v>185</v>
       </c>
@@ -22736,7 +22756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" ht="12.75">
       <c r="A20" s="4" t="s">
         <v>193</v>
       </c>
@@ -22864,7 +22884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" ht="12.75">
       <c r="A21" s="4" t="s">
         <v>201</v>
       </c>
@@ -22992,7 +23012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" ht="12.75">
       <c r="A22" s="4" t="s">
         <v>209</v>
       </c>
@@ -23120,7 +23140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" ht="12.75">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -23248,7 +23268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" ht="12.75">
       <c r="A25" s="7" t="s">
         <v>218</v>
       </c>
@@ -23376,7 +23396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" ht="12.75">
       <c r="A26" s="7" t="s">
         <v>227</v>
       </c>
@@ -23504,7 +23524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" ht="12.75">
       <c r="A27" s="7" t="s">
         <v>235</v>
       </c>
@@ -23632,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" ht="12.75">
       <c r="A28" s="7" t="s">
         <v>243</v>
       </c>
@@ -23760,7 +23780,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" ht="12.75">
       <c r="A29" s="7" t="s">
         <v>251</v>
       </c>
@@ -23888,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" ht="12.75">
       <c r="A30" s="7" t="s">
         <v>259</v>
       </c>
@@ -24016,7 +24036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" ht="12.75">
       <c r="A31" s="7" t="s">
         <v>267</v>
       </c>
@@ -24144,7 +24164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" ht="12.75">
       <c r="A32" s="7" t="s">
         <v>275</v>
       </c>
@@ -24272,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" ht="12.75">
       <c r="A33" s="7" t="s">
         <v>283</v>
       </c>
@@ -24400,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" ht="12.75">
       <c r="A34" s="7" t="s">
         <v>291</v>
       </c>
@@ -24528,7 +24548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" ht="12.75">
       <c r="A35" s="7" t="s">
         <v>299</v>
       </c>
@@ -24656,7 +24676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" ht="12.75">
       <c r="A36" s="7" t="s">
         <v>307</v>
       </c>
@@ -24784,7 +24804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" ht="12.75">
       <c r="A37" s="7" t="s">
         <v>315</v>
       </c>
@@ -24912,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" ht="12.75">
       <c r="A38" s="7" t="s">
         <v>323</v>
       </c>
@@ -25040,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" ht="12.75">
       <c r="A39" s="7" t="s">
         <v>331</v>
       </c>
@@ -25168,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" ht="12.75">
       <c r="A41" s="10" t="s">
         <v>0</v>
       </c>
@@ -25296,7 +25316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" ht="12.75">
       <c r="A42" s="10" t="s">
         <v>339</v>
       </c>
@@ -25424,7 +25444,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" ht="12.75">
       <c r="A43" s="10" t="s">
         <v>348</v>
       </c>
@@ -25552,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" ht="12.75">
       <c r="A44" s="10" t="s">
         <v>356</v>
       </c>
@@ -25680,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" ht="12.75">
       <c r="A45" s="10" t="s">
         <v>364</v>
       </c>
@@ -25808,7 +25828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" ht="12.75">
       <c r="A46" s="10" t="s">
         <v>372</v>
       </c>
@@ -25936,7 +25956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" ht="12.75">
       <c r="A47" s="10" t="s">
         <v>380</v>
       </c>
@@ -26064,7 +26084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" ht="12.75">
       <c r="A48" s="10" t="s">
         <v>388</v>
       </c>
@@ -26192,7 +26212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" ht="12.75">
       <c r="A49" s="10" t="s">
         <v>396</v>
       </c>
@@ -26320,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" ht="12.75">
       <c r="A50" s="10" t="s">
         <v>404</v>
       </c>
@@ -26448,7 +26468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" ht="12.75">
       <c r="A51" s="10" t="s">
         <v>412</v>
       </c>
@@ -26576,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" ht="12.75">
       <c r="A52" s="10" t="s">
         <v>420</v>
       </c>
@@ -26704,7 +26724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" ht="12.75">
       <c r="A53" s="10" t="s">
         <v>428</v>
       </c>
@@ -26832,7 +26852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" ht="12.75">
       <c r="A54" s="10" t="s">
         <v>436</v>
       </c>
@@ -26960,7 +26980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" ht="12.75">
       <c r="A55" s="10" t="s">
         <v>444</v>
       </c>
@@ -27088,7 +27108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" ht="12.75">
       <c r="A56" s="10" t="s">
         <v>452</v>
       </c>
@@ -27216,7 +27236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" ht="12.75">
       <c r="A57" s="10" t="s">
         <v>460</v>
       </c>
@@ -27344,7 +27364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" ht="12.75">
       <c r="A58" s="10" t="s">
         <v>470</v>
       </c>
@@ -27472,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" ht="12.75">
       <c r="A59" s="10" t="s">
         <v>478</v>
       </c>
@@ -27600,393 +27620,393 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:43" ht="12.75">
+      <c r="A60" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="B60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D60" s="6">
+        <v>45</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>17</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>9</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" s="6">
+        <v>0</v>
+      </c>
+      <c r="W60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" ht="12.75">
+      <c r="A61" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="D60" s="1">
-        <v>55</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
-        <v>34</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2</v>
-      </c>
-      <c r="J60" s="5">
-        <v>2</v>
-      </c>
-      <c r="K60" s="5">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0</v>
-      </c>
-      <c r="P60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="U60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V60" s="1">
-        <v>1</v>
-      </c>
-      <c r="W60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO60" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AP60" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AQ60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43">
-      <c r="A61" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="D61" s="1">
         <v>55</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>34</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2</v>
+      </c>
+      <c r="J61" s="5">
+        <v>2</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="U61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AP61" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" ht="12.75">
+      <c r="A62" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D62" s="1">
+        <v>55</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
         <v>200</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
-      </c>
-      <c r="K61" s="1">
-        <v>0</v>
-      </c>
-      <c r="L61" s="1">
-        <v>0</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
-      </c>
-      <c r="N61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0</v>
-      </c>
-      <c r="P61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1" t="s">
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="S62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="T62" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="U61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X61" s="1" t="s">
+      <c r="U62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Y62" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="Z61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO61" s="1" t="s">
+      <c r="Z62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="AP61" s="1" t="s">
+      <c r="AP62" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="AQ61" s="1">
+      <c r="AQ62" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
-      <c r="A62" s="10" t="s">
+    <row r="63" spans="1:43" ht="12.75">
+      <c r="A63" s="10" t="s">
         <v>502</v>
-      </c>
-      <c r="B62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D62" s="1">
-        <v>66</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="5">
-        <v>100</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-      <c r="P62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="U62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ62" s="5">
-        <v>25</v>
-      </c>
-      <c r="AK62" s="1">
-        <v>1.625</v>
-      </c>
-      <c r="AL62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO62" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AP62" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="AQ62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43">
-      <c r="A63" s="10" t="s">
-        <v>510</v>
       </c>
       <c r="B63" s="1" t="b">
         <v>1</v>
@@ -27995,28 +28015,28 @@
         <v>340</v>
       </c>
       <c r="D63" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="F63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I63" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1">
         <v>0</v>
@@ -28025,10 +28045,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O63" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
       </c>
       <c r="P63" s="1" t="b">
         <v>0</v>
@@ -28037,28 +28057,28 @@
         <v>0</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="U63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="Z63" s="1" t="b">
         <v>0</v>
@@ -28088,33 +28108,33 @@
         <v>0</v>
       </c>
       <c r="AI63" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AJ63" s="5">
+        <v>25</v>
       </c>
       <c r="AK63" s="1">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="AL63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="AM63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="AP63" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AQ63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" ht="12.75">
       <c r="A64" s="10" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B64" s="1" t="b">
         <v>1</v>
@@ -28123,58 +28143,58 @@
         <v>340</v>
       </c>
       <c r="D64" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="5">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I64" s="1">
-        <v>4</v>
-      </c>
-      <c r="J64" s="5">
-        <v>4</v>
-      </c>
-      <c r="K64" s="5">
-        <v>0</v>
-      </c>
-      <c r="L64" s="5">
-        <v>9</v>
-      </c>
-      <c r="M64" s="5">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>5</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
       </c>
       <c r="N64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1</v>
       </c>
       <c r="P64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Q64" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="U64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" s="1">
         <v>1</v>
@@ -28183,10 +28203,10 @@
         <v>0</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="Z64" s="1" t="b">
         <v>0</v>
@@ -28228,21 +28248,21 @@
         <v>0</v>
       </c>
       <c r="AM64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO64" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="AP64" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AQ64" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" ht="12.75">
       <c r="A65" s="10" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B65" s="1" t="b">
         <v>1</v>
@@ -28251,34 +28271,34 @@
         <v>340</v>
       </c>
       <c r="D65" s="1">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1">
-        <v>0</v>
-      </c>
-      <c r="L65" s="1">
-        <v>0</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J65" s="5">
+        <v>4</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>9</v>
+      </c>
+      <c r="M65" s="5">
+        <v>7</v>
       </c>
       <c r="N65" s="1" t="b">
         <v>0</v>
@@ -28287,34 +28307,34 @@
         <v>0</v>
       </c>
       <c r="P65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="U65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Z65" s="1" t="b">
         <v>0</v>
@@ -28356,21 +28376,21 @@
         <v>0</v>
       </c>
       <c r="AM65" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AP65" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AQ65" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" ht="12.75">
       <c r="A66" s="10" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B66" s="1" t="b">
         <v>1</v>
@@ -28379,13 +28399,13 @@
         <v>340</v>
       </c>
       <c r="D66" s="1">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F66" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5">
         <v>100</v>
@@ -28394,367 +28414,367 @@
         <v>45</v>
       </c>
       <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>0</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="U66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO66" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AP66" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" ht="12.75">
+      <c r="A67" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D67" s="1">
+        <v>85</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>100</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="1">
         <v>16</v>
       </c>
-      <c r="J66" s="1">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
         <v>16</v>
       </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" s="5">
+      <c r="L67" s="1">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5">
         <v>3</v>
       </c>
-      <c r="P66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R66" s="1" t="s">
+      <c r="P67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="T67" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="U66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V66" s="1">
-        <v>1</v>
-      </c>
-      <c r="W66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X66" s="1" t="s">
+      <c r="U67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="Y66" s="1" t="s">
+      <c r="Y67" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Z66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI66" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ66" s="5">
+      <c r="Z67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ67" s="5">
         <v>50</v>
       </c>
-      <c r="AK66" s="1">
+      <c r="AK67" s="1">
         <v>1.5</v>
       </c>
-      <c r="AL66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO66" s="1" t="s">
+      <c r="AL67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="AP66" s="1" t="s">
+      <c r="AP67" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="AQ66" s="1">
+      <c r="AQ67" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
-      <c r="A68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="12" t="s">
+    <row r="69" spans="1:43" ht="12.75">
+      <c r="A69" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E69" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F69" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H68" s="12" t="s">
+      <c r="H69" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="I69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J69" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K68" s="12" t="s">
+      <c r="K69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="12" t="s">
+      <c r="L69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="12" t="s">
+      <c r="M69" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N68" s="12" t="s">
+      <c r="N69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O68" s="12" t="s">
+      <c r="O69" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P68" s="12" t="s">
+      <c r="P69" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q68" s="12" t="s">
+      <c r="Q69" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R68" s="12" t="s">
+      <c r="R69" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S68" s="12" t="s">
+      <c r="S69" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T68" s="12" t="s">
+      <c r="T69" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U68" s="12" t="s">
+      <c r="U69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V68" s="12" t="s">
+      <c r="V69" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="W68" s="12" t="s">
+      <c r="W69" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X68" s="12" t="s">
+      <c r="X69" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y68" s="12" t="s">
+      <c r="Y69" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z68" s="12" t="s">
+      <c r="Z69" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA68" s="12" t="s">
+      <c r="AA69" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AB68" s="12" t="s">
+      <c r="AB69" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AC68" s="12" t="s">
+      <c r="AC69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AD68" s="13" t="s">
+      <c r="AD69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE68" s="12" t="s">
+      <c r="AE69" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AF68" s="13" t="s">
+      <c r="AF69" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG68" s="12" t="s">
+      <c r="AG69" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AH68" s="12" t="s">
+      <c r="AH69" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AI68" s="12" t="s">
+      <c r="AI69" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ68" s="12" t="s">
+      <c r="AJ69" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AK68" s="12" t="s">
+      <c r="AK69" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AL68" s="12" t="s">
+      <c r="AL69" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AM68" s="12" t="s">
+      <c r="AM69" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AO68" s="12" t="s">
+      <c r="AO69" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AP68" s="12" t="s">
+      <c r="AP69" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AQ68" s="12" t="s">
+      <c r="AQ69" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
-      <c r="A69" s="12" t="s">
+    <row r="70" spans="1:43" ht="12.75">
+      <c r="A70" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="B69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" s="5">
-        <v>17</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5">
-        <v>0</v>
-      </c>
-      <c r="L69" s="5">
-        <v>7</v>
-      </c>
-      <c r="M69" s="5">
-        <v>4</v>
-      </c>
-      <c r="N69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69" s="5">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V69" s="1">
-        <v>1</v>
-      </c>
-      <c r="W69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X69" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="Y69" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="Z69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO69" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="AP69" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="AQ69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:43">
-      <c r="A70" s="12" t="s">
-        <v>551</v>
       </c>
       <c r="B70" s="1" t="b">
         <v>1</v>
@@ -28772,7 +28792,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>45</v>
@@ -28780,17 +28800,17 @@
       <c r="I70" s="1">
         <v>1</v>
       </c>
-      <c r="J70" s="1">
-        <v>1</v>
-      </c>
-      <c r="K70" s="1">
-        <v>0</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>7</v>
+      </c>
+      <c r="M70" s="5">
+        <v>4</v>
       </c>
       <c r="N70" s="1" t="b">
         <v>1</v>
@@ -28799,43 +28819,43 @@
         <v>1</v>
       </c>
       <c r="P70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="U70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="Z70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="1">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="1" t="b">
         <v>0</v>
@@ -28871,18 +28891,18 @@
         <v>0</v>
       </c>
       <c r="AO70" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="AP70" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="AQ70" s="1">
-        <v>1.1279999999999999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" ht="12.75">
       <c r="A71" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B71" s="1" t="b">
         <v>1</v>
@@ -28900,19 +28920,19 @@
         <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I71" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
@@ -28927,43 +28947,43 @@
         <v>1</v>
       </c>
       <c r="P71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="U71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W71" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="Z71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.376</v>
       </c>
       <c r="AC71" s="1" t="b">
         <v>0</v>
@@ -28999,18 +29019,18 @@
         <v>0</v>
       </c>
       <c r="AO71" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="AP71" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="AQ71" s="1">
-        <v>0</v>
+        <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" ht="12.75">
       <c r="A72" s="12" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B72" s="1" t="b">
         <v>1</v>
@@ -29034,13 +29054,13 @@
         <v>45</v>
       </c>
       <c r="I72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
@@ -29055,34 +29075,34 @@
         <v>1</v>
       </c>
       <c r="P72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="U72" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W72" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="Z72" s="1" t="b">
         <v>0</v>
@@ -29094,16 +29114,16 @@
         <v>0</v>
       </c>
       <c r="AC72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
       </c>
       <c r="AE72" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="5">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
       </c>
       <c r="AG72" s="1" t="b">
         <v>0</v>
@@ -29127,18 +29147,18 @@
         <v>0</v>
       </c>
       <c r="AO72" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="AP72" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="AQ72" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" ht="12.75">
       <c r="A73" s="12" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B73" s="1" t="b">
         <v>1</v>
@@ -29156,10 +29176,10 @@
         <v>0</v>
       </c>
       <c r="G73" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -29189,13 +29209,13 @@
         <v>0</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="U73" s="1" t="b">
         <v>0</v>
@@ -29207,10 +29227,10 @@
         <v>0</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Z73" s="1" t="b">
         <v>0</v>
@@ -29222,16 +29242,16 @@
         <v>0</v>
       </c>
       <c r="AC73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD73" s="5">
+        <v>1</v>
       </c>
       <c r="AE73" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF73" s="5">
+        <v>17</v>
       </c>
       <c r="AG73" s="1" t="b">
         <v>0</v>
@@ -29255,18 +29275,18 @@
         <v>0</v>
       </c>
       <c r="AO73" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AP73" s="1" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AQ73" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" ht="12.75">
       <c r="A74" s="12" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B74" s="1" t="b">
         <v>1</v>
@@ -29287,7 +29307,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
@@ -29317,13 +29337,13 @@
         <v>0</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="U74" s="1" t="b">
         <v>0</v>
@@ -29335,10 +29355,10 @@
         <v>0</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Z74" s="1" t="b">
         <v>0</v>
@@ -29383,18 +29403,18 @@
         <v>0</v>
       </c>
       <c r="AO74" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="AP74" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="AQ74" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" ht="12.75">
       <c r="A75" s="12" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B75" s="1" t="b">
         <v>1</v>
@@ -29406,22 +29426,22 @@
         <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="5">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
         <v>0</v>
@@ -29445,13 +29465,13 @@
         <v>0</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="U75" s="1" t="b">
         <v>0</v>
@@ -29463,10 +29483,10 @@
         <v>0</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="Z75" s="1" t="b">
         <v>0</v>
@@ -29511,18 +29531,18 @@
         <v>0</v>
       </c>
       <c r="AO75" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AP75" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AQ75" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" ht="12.75">
       <c r="A76" s="12" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B76" s="1" t="b">
         <v>1</v>
@@ -29531,28 +29551,28 @@
         <v>543</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G76" s="5">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I76" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L76" s="1">
         <v>0</v>
@@ -29561,10 +29581,10 @@
         <v>0</v>
       </c>
       <c r="N76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O76" s="5">
+        <v>1</v>
       </c>
       <c r="P76" s="1" t="b">
         <v>1</v>
@@ -29573,28 +29593,28 @@
         <v>0</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="U76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="Z76" s="1" t="b">
         <v>0</v>
@@ -29639,18 +29659,18 @@
         <v>0</v>
       </c>
       <c r="AO76" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="AP76" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AQ76" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" ht="12.75">
       <c r="A77" s="12" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B77" s="1" t="b">
         <v>1</v>
@@ -29659,28 +29679,28 @@
         <v>543</v>
       </c>
       <c r="D77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G77" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I77" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
       </c>
       <c r="K77" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77" s="1">
         <v>0</v>
@@ -29689,10 +29709,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
       </c>
       <c r="P77" s="1" t="b">
         <v>1</v>
@@ -29701,28 +29721,28 @@
         <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="U77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="Z77" s="1" t="b">
         <v>0</v>
@@ -29734,16 +29754,16 @@
         <v>0</v>
       </c>
       <c r="AC77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AD77" s="1">
+        <v>0</v>
       </c>
       <c r="AE77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="5">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>0</v>
       </c>
       <c r="AG77" s="1" t="b">
         <v>0</v>
@@ -29767,18 +29787,18 @@
         <v>0</v>
       </c>
       <c r="AO77" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="AP77" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AQ77" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" ht="12.75">
       <c r="A78" s="12" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B78" s="1" t="b">
         <v>1</v>
@@ -29787,16 +29807,16 @@
         <v>543</v>
       </c>
       <c r="D78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G78" s="5">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>45</v>
@@ -29804,17 +29824,17 @@
       <c r="I78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="5">
-        <v>1</v>
-      </c>
-      <c r="K78" s="5">
-        <v>0</v>
-      </c>
-      <c r="L78" s="5">
-        <v>7</v>
-      </c>
-      <c r="M78" s="5">
-        <v>5</v>
+      <c r="J78" s="1">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
       </c>
       <c r="N78" s="1" t="b">
         <v>1</v>
@@ -29823,34 +29843,34 @@
         <v>1</v>
       </c>
       <c r="P78" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="U78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="Z78" s="1" t="b">
         <v>0</v>
@@ -29862,16 +29882,16 @@
         <v>0</v>
       </c>
       <c r="AC78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD78" s="5">
+        <v>6</v>
       </c>
       <c r="AE78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF78" s="5">
+        <v>17</v>
       </c>
       <c r="AG78" s="1" t="b">
         <v>0</v>
@@ -29895,18 +29915,18 @@
         <v>0</v>
       </c>
       <c r="AO78" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AP78" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="AQ78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" ht="12.75">
       <c r="A79" s="12" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B79" s="1" t="b">
         <v>1</v>
@@ -29915,7 +29935,7 @@
         <v>543</v>
       </c>
       <c r="D79" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>44</v>
@@ -29924,25 +29944,25 @@
         <v>0</v>
       </c>
       <c r="G79" s="5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="1">
-        <v>1</v>
-      </c>
-      <c r="K79" s="1">
-        <v>0</v>
-      </c>
-      <c r="L79" s="1">
-        <v>0</v>
-      </c>
-      <c r="M79" s="1">
-        <v>0</v>
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>7</v>
+      </c>
+      <c r="M79" s="5">
+        <v>5</v>
       </c>
       <c r="N79" s="1" t="b">
         <v>1</v>
@@ -29951,34 +29971,34 @@
         <v>1</v>
       </c>
       <c r="P79" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="U79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Z79" s="1" t="b">
         <v>0</v>
@@ -30023,18 +30043,18 @@
         <v>0</v>
       </c>
       <c r="AO79" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="AP79" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="AQ79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43">
+    <row r="80" spans="1:43" ht="12.75">
       <c r="A80" s="12" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B80" s="1" t="b">
         <v>1</v>
@@ -30049,7 +30069,7 @@
         <v>44</v>
       </c>
       <c r="F80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="5">
         <v>9</v>
@@ -30058,13 +30078,13 @@
         <v>54</v>
       </c>
       <c r="I80" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
       </c>
       <c r="K80" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L80" s="1">
         <v>0</v>
@@ -30085,28 +30105,28 @@
         <v>0</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="U80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Z80" s="1" t="b">
         <v>0</v>
@@ -30151,18 +30171,18 @@
         <v>0</v>
       </c>
       <c r="AO80" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="AP80" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="AQ80" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:43">
+    <row r="81" spans="1:43" ht="12.75">
       <c r="A81" s="12" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B81" s="1" t="b">
         <v>1</v>
@@ -30171,28 +30191,28 @@
         <v>543</v>
       </c>
       <c r="D81" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I81" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L81" s="1">
         <v>0</v>
@@ -30201,10 +30221,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O81" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O81" s="5">
+        <v>1</v>
       </c>
       <c r="P81" s="1" t="b">
         <v>1</v>
@@ -30213,28 +30233,28 @@
         <v>0</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="U81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="Z81" s="1" t="b">
         <v>0</v>
@@ -30246,10 +30266,10 @@
         <v>0</v>
       </c>
       <c r="AC81" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AD81" s="1">
+        <v>0</v>
       </c>
       <c r="AE81" s="1" t="b">
         <v>0</v>
@@ -30279,18 +30299,18 @@
         <v>0</v>
       </c>
       <c r="AO81" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="AP81" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="AQ81" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:43">
+    <row r="82" spans="1:43" ht="12.75">
       <c r="A82" s="12" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B82" s="1" t="b">
         <v>1</v>
@@ -30299,7 +30319,7 @@
         <v>543</v>
       </c>
       <c r="D82" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>44</v>
@@ -30308,10 +30328,10 @@
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
@@ -30329,10 +30349,10 @@
         <v>0</v>
       </c>
       <c r="N82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O82" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
       </c>
       <c r="P82" s="1" t="b">
         <v>1</v>
@@ -30341,13 +30361,13 @@
         <v>0</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="U82" s="1" t="b">
         <v>0</v>
@@ -30359,10 +30379,10 @@
         <v>0</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="Z82" s="1" t="b">
         <v>0</v>
@@ -30374,10 +30394,10 @@
         <v>0</v>
       </c>
       <c r="AC82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD82" s="5">
+        <v>2</v>
       </c>
       <c r="AE82" s="1" t="b">
         <v>0</v>
@@ -30386,10 +30406,10 @@
         <v>0</v>
       </c>
       <c r="AG82" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH82" s="1">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AI82" s="1" t="b">
         <v>0</v>
@@ -30407,18 +30427,18 @@
         <v>0</v>
       </c>
       <c r="AO82" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="AP82" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="AQ82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:43">
+    <row r="83" spans="1:43" ht="12.75">
       <c r="A83" s="12" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B83" s="1" t="b">
         <v>1</v>
@@ -30427,19 +30447,19 @@
         <v>543</v>
       </c>
       <c r="D83" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F83" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G83" s="5">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
@@ -30457,10 +30477,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O83" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1</v>
       </c>
       <c r="P83" s="1" t="b">
         <v>1</v>
@@ -30469,13 +30489,13 @@
         <v>0</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="U83" s="1" t="b">
         <v>0</v>
@@ -30487,10 +30507,10 @@
         <v>0</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="Z83" s="1" t="b">
         <v>0</v>
@@ -30502,22 +30522,22 @@
         <v>0</v>
       </c>
       <c r="AC83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>0</v>
       </c>
       <c r="AE83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF83" s="5">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>0</v>
       </c>
       <c r="AG83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH83" s="1">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AI83" s="1" t="b">
         <v>0</v>
@@ -30535,18 +30555,18 @@
         <v>0</v>
       </c>
       <c r="AO83" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="AP83" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="AQ83" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:43">
+    <row r="84" spans="1:43" ht="12.75">
       <c r="A84" s="12" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B84" s="1" t="b">
         <v>1</v>
@@ -30555,10 +30575,10 @@
         <v>543</v>
       </c>
       <c r="D84" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F84" s="1" t="b">
         <v>0</v>
@@ -30570,13 +30590,13 @@
         <v>45</v>
       </c>
       <c r="I84" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L84" s="1">
         <v>0</v>
@@ -30585,40 +30605,40 @@
         <v>0</v>
       </c>
       <c r="N84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O84" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
       </c>
       <c r="P84" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="U84" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="Z84" s="1" t="b">
         <v>0</v>
@@ -30630,16 +30650,16 @@
         <v>0</v>
       </c>
       <c r="AC84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD84" s="5">
+        <v>6</v>
       </c>
       <c r="AE84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AF84" s="5">
+        <v>6</v>
       </c>
       <c r="AG84" s="1" t="b">
         <v>0</v>
@@ -30663,27 +30683,27 @@
         <v>0</v>
       </c>
       <c r="AO84" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="AP84" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="AQ84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:43">
+    <row r="85" spans="1:43" ht="12.75">
       <c r="A85" s="12" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="D85" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>44</v>
@@ -30692,19 +30712,19 @@
         <v>0</v>
       </c>
       <c r="G85" s="5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>462</v>
+        <v>45</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J85" s="1">
         <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -30713,10 +30733,10 @@
         <v>0</v>
       </c>
       <c r="N85" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1</v>
       </c>
       <c r="P85" s="1" t="b">
         <v>0</v>
@@ -30725,28 +30745,28 @@
         <v>0</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="U85" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W85" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Y85" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="Z85" s="1" t="b">
         <v>0</v>
@@ -30791,30 +30811,30 @@
         <v>0</v>
       </c>
       <c r="AO85" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="AP85" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="AQ85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:43">
+    <row r="86" spans="1:43" ht="12.75">
       <c r="A86" s="12" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>543</v>
+        <v>461</v>
       </c>
       <c r="D86" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F86" s="1" t="b">
         <v>0</v>
@@ -30823,58 +30843,58 @@
         <v>34</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>45</v>
+        <v>462</v>
       </c>
       <c r="I86" s="1">
-        <v>8</v>
-      </c>
-      <c r="J86" s="5">
-        <v>8</v>
-      </c>
-      <c r="K86" s="5">
-        <v>0</v>
-      </c>
-      <c r="L86" s="5">
-        <v>10</v>
-      </c>
-      <c r="M86" s="5">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0</v>
       </c>
       <c r="N86" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O86" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
       </c>
       <c r="P86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Q86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="U86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X86" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="Z86" s="1" t="b">
         <v>0</v>
@@ -30919,18 +30939,18 @@
         <v>0</v>
       </c>
       <c r="AO86" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="AP86" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AQ86" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:43">
+    <row r="87" spans="1:43" ht="12.75">
       <c r="A87" s="12" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B87" s="1" t="b">
         <v>1</v>
@@ -30939,34 +30959,34 @@
         <v>543</v>
       </c>
       <c r="D87" s="1">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I87" s="1">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1</v>
-      </c>
-      <c r="K87" s="1">
-        <v>0</v>
-      </c>
-      <c r="L87" s="1">
-        <v>0</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J87" s="5">
+        <v>8</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <v>10</v>
+      </c>
+      <c r="M87" s="5">
+        <v>9</v>
       </c>
       <c r="N87" s="1" t="b">
         <v>1</v>
@@ -30975,34 +30995,34 @@
         <v>1</v>
       </c>
       <c r="P87" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="U87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X87" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="Z87" s="1" t="b">
         <v>0</v>
@@ -31044,21 +31064,21 @@
         <v>0</v>
       </c>
       <c r="AM87" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO87" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AP87" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="AQ87" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:43">
-      <c r="A88" s="12" t="s">
-        <v>695</v>
+    <row r="88" spans="1:43" ht="12.75">
+      <c r="A88" s="22" t="s">
+        <v>687</v>
       </c>
       <c r="B88" s="1" t="b">
         <v>1</v>
@@ -31067,16 +31087,16 @@
         <v>543</v>
       </c>
       <c r="D88" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F88" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G88" s="5">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>45</v>
@@ -31109,13 +31129,13 @@
         <v>0</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="U88" s="1" t="b">
         <v>0</v>
@@ -31127,10 +31147,10 @@
         <v>0</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="Y88" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="Z88" s="1" t="b">
         <v>0</v>
@@ -31175,146 +31195,146 @@
         <v>1</v>
       </c>
       <c r="AO88" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="AP88" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="AQ88" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:43">
-      <c r="A89" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="1:43" ht="12.75">
+      <c r="A89" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="B89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D89" s="1">
-        <v>60</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F89" s="1" t="b">
+      <c r="D89" s="6">
+        <v>45</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" s="6" t="b">
         <v>1</v>
       </c>
       <c r="G89" s="5">
-        <v>25</v>
-      </c>
-      <c r="H89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I89" s="1">
-        <v>1</v>
-      </c>
-      <c r="J89" s="1">
-        <v>1</v>
-      </c>
-      <c r="K89" s="1">
-        <v>0</v>
-      </c>
-      <c r="L89" s="1">
-        <v>0</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0</v>
-      </c>
-      <c r="N89" s="1" t="b">
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6" t="b">
         <v>1</v>
       </c>
       <c r="O89" s="5">
         <v>1</v>
       </c>
-      <c r="P89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R89" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="T89" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="U89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V89" s="1">
-        <v>0</v>
-      </c>
-      <c r="W89" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="X89" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="Y89" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="Z89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK89" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM89" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO89" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="AP89" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="AQ89" s="1">
+      <c r="P89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T89" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="U89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="V89" s="6">
+        <v>0</v>
+      </c>
+      <c r="W89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK89" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO89" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP89" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ89" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" ht="12.75">
       <c r="A90" s="12" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B90" s="1" t="b">
         <v>1</v>
@@ -31323,28 +31343,28 @@
         <v>543</v>
       </c>
       <c r="D90" s="1">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G90" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" s="1">
         <v>0</v>
@@ -31355,38 +31375,38 @@
       <c r="N90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O90" s="1">
-        <v>0</v>
+      <c r="O90" s="5">
+        <v>1</v>
       </c>
       <c r="P90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="U90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="Z90" s="1" t="b">
         <v>0</v>
@@ -31428,21 +31448,21 @@
         <v>0</v>
       </c>
       <c r="AM90" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO90" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="AP90" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="AQ90" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" ht="12.75">
       <c r="A91" s="12" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="B91" s="1" t="b">
         <v>1</v>
@@ -31451,10 +31471,10 @@
         <v>543</v>
       </c>
       <c r="D91" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F91" s="1" t="b">
         <v>1</v>
@@ -31466,13 +31486,13 @@
         <v>45</v>
       </c>
       <c r="I91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L91" s="1">
         <v>0</v>
@@ -31487,34 +31507,34 @@
         <v>1</v>
       </c>
       <c r="P91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="U91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="Z91" s="1" t="b">
         <v>0</v>
@@ -31556,21 +31576,21 @@
         <v>0</v>
       </c>
       <c r="AM91" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO91" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="AP91" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="AQ91" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" ht="12.75">
       <c r="A92" s="12" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="B92" s="1" t="b">
         <v>1</v>
@@ -31579,28 +31599,28 @@
         <v>543</v>
       </c>
       <c r="D92" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="5">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" s="1">
         <v>0</v>
@@ -31611,38 +31631,38 @@
       <c r="N92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O92" s="5">
-        <v>2</v>
+      <c r="O92" s="1">
+        <v>0</v>
       </c>
       <c r="P92" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="U92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W92" s="1" t="b">
         <v>0</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="Z92" s="1" t="b">
         <v>0</v>
@@ -31687,18 +31707,18 @@
         <v>0</v>
       </c>
       <c r="AO92" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="AP92" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="AQ92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" ht="12.75">
       <c r="A93" s="12" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="B93" s="1" t="b">
         <v>1</v>
@@ -31707,58 +31727,58 @@
         <v>543</v>
       </c>
       <c r="D93" s="1">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="5">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="I93" s="1">
-        <v>4</v>
-      </c>
-      <c r="J93" s="5">
-        <v>4</v>
-      </c>
-      <c r="K93" s="5">
-        <v>0</v>
-      </c>
-      <c r="L93" s="5">
-        <v>9</v>
-      </c>
-      <c r="M93" s="5">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>5</v>
+      </c>
+      <c r="L93" s="1">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>0</v>
       </c>
       <c r="N93" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O93" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O93" s="5">
+        <v>1</v>
       </c>
       <c r="P93" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Q93" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="U93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" s="1">
         <v>1</v>
@@ -31767,10 +31787,10 @@
         <v>0</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="Z93" s="1" t="b">
         <v>0</v>
@@ -31812,21 +31832,21 @@
         <v>0</v>
       </c>
       <c r="AM93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO93" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="AP93" s="1" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="AQ93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" ht="12.75">
       <c r="A94" s="12" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B94" s="1" t="b">
         <v>1</v>
@@ -31835,986 +31855,1004 @@
         <v>543</v>
       </c>
       <c r="D94" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G94" s="5">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O94" s="5">
+        <v>2</v>
+      </c>
+      <c r="P94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V94" s="1">
+        <v>0</v>
+      </c>
+      <c r="W94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y94" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="Z94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="AP94" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" ht="12.75">
+      <c r="A95" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D95" s="1">
+        <v>81</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5">
+        <v>100</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I95" s="1">
+        <v>4</v>
+      </c>
+      <c r="J95" s="5">
+        <v>4</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0</v>
+      </c>
+      <c r="L95" s="5">
+        <v>9</v>
+      </c>
+      <c r="M95" s="5">
+        <v>7</v>
+      </c>
+      <c r="N95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+      <c r="P95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="S95" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="U95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V95" s="1">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AP95" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" ht="12.75">
+      <c r="A96" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D96" s="1">
+        <v>85</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5">
+        <v>100</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I96" s="1">
         <v>16</v>
       </c>
-      <c r="J94" s="1">
-        <v>0</v>
-      </c>
-      <c r="K94" s="1">
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
         <v>16</v>
       </c>
-      <c r="L94" s="1">
-        <v>0</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0</v>
-      </c>
-      <c r="N94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O94" s="5">
+      <c r="L96" s="1">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O96" s="5">
         <v>3</v>
       </c>
-      <c r="P94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R94" s="1" t="s">
+      <c r="P96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="S94" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="T94" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="U94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V94" s="1">
-        <v>1</v>
-      </c>
-      <c r="W94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X94" s="1" t="s">
+      <c r="U96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="V96" s="1">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X96" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="Y94" s="1" t="s">
+      <c r="Y96" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="Z94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH94" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ94" s="5">
+      <c r="Z96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ96" s="5">
         <v>50</v>
       </c>
-      <c r="AK94" s="1">
+      <c r="AK96" s="1">
         <v>1.5</v>
       </c>
-      <c r="AL94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM94" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO94" s="1" t="s">
+      <c r="AL96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="AP94" s="1" t="s">
+      <c r="AP96" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="AQ94" s="1">
+      <c r="AQ96" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:43">
-      <c r="A96" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="14" t="s">
+    <row r="98" spans="1:43" ht="12.75">
+      <c r="A98" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D98" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E98" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F98" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G98" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H98" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I96" s="14" t="s">
+      <c r="I98" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J96" s="14" t="s">
+      <c r="J98" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K98" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L96" s="14" t="s">
+      <c r="L98" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M96" s="14" t="s">
+      <c r="M98" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N96" s="14" t="s">
+      <c r="N98" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O96" s="14" t="s">
+      <c r="O98" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P96" s="14" t="s">
+      <c r="P98" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q96" s="14" t="s">
+      <c r="Q98" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R96" s="14" t="s">
+      <c r="R98" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S96" s="14" t="s">
+      <c r="S98" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T96" s="14" t="s">
+      <c r="T98" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U96" s="14" t="s">
+      <c r="U98" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V96" s="14" t="s">
+      <c r="V98" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="W96" s="14" t="s">
+      <c r="W98" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X96" s="14" t="s">
+      <c r="X98" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y96" s="14" t="s">
+      <c r="Y98" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z96" s="14" t="s">
+      <c r="Z98" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA96" s="14" t="s">
+      <c r="AA98" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB96" s="14" t="s">
+      <c r="AB98" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC96" s="14" t="s">
+      <c r="AC98" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD96" s="15" t="s">
+      <c r="AD98" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE96" s="14" t="s">
+      <c r="AE98" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF96" s="15" t="s">
+      <c r="AF98" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AG96" s="14" t="s">
+      <c r="AG98" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH96" s="14" t="s">
+      <c r="AH98" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI96" s="14" t="s">
+      <c r="AI98" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ96" s="14" t="s">
+      <c r="AJ98" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK96" s="14" t="s">
+      <c r="AK98" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL96" s="14" t="s">
+      <c r="AL98" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AM96" s="16" t="s">
+      <c r="AM98" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AO96" s="14" t="s">
+      <c r="AO98" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AP96" s="14" t="s">
+      <c r="AP98" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AQ96" s="14" t="s">
+      <c r="AQ98" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:43">
-      <c r="A97" s="14" t="s">
+    <row r="99" spans="1:43" ht="12.75">
+      <c r="A99" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="B97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D99" s="1">
         <v>10</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="5">
+      <c r="F99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="5">
         <v>50</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I97" s="1">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1">
-        <v>1</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0</v>
-      </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O97" s="1">
-        <v>0</v>
-      </c>
-      <c r="P97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R97" s="1" t="s">
+      <c r="I99" s="1">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>0</v>
+      </c>
+      <c r="N99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+      <c r="P99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="S97" s="1" t="s">
+      <c r="S99" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="T97" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="U97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V97" s="1">
-        <v>0</v>
-      </c>
-      <c r="W97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X97" s="1" t="s">
+      <c r="U99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V99" s="1">
+        <v>0</v>
+      </c>
+      <c r="W99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X99" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="Y97" s="1" t="s">
+      <c r="Y99" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="Z97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO97" s="1" t="s">
+      <c r="Z99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="AP97" s="1" t="s">
+      <c r="AP99" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="AQ97" s="1">
+      <c r="AQ99" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:43">
-      <c r="A98" s="14" t="s">
+    <row r="100" spans="1:43" ht="12.75">
+      <c r="A100" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="B98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="B100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D100" s="1">
         <v>50</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="F100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="5">
         <v>25</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>1</v>
-      </c>
-      <c r="K98" s="1">
-        <v>0</v>
-      </c>
-      <c r="L98" s="1">
-        <v>0</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-      <c r="P98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1" t="s">
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="S98" s="1" t="s">
+      <c r="S100" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="T98" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="U98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V98" s="1">
-        <v>0</v>
-      </c>
-      <c r="W98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="X98" s="1" t="s">
+      <c r="U100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V100" s="1">
+        <v>0</v>
+      </c>
+      <c r="W100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X100" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="Y98" s="1" t="s">
+      <c r="Y100" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="Z98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK98" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO98" s="1" t="s">
+      <c r="Z100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK100" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="AP98" s="1" t="s">
+      <c r="AP100" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="AQ98" s="1">
+      <c r="AQ100" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:43">
-      <c r="A100" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="17" t="s">
+    <row r="102" spans="1:43" ht="12.75">
+      <c r="A102" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D102" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E102" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F102" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G102" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H100" s="17" t="s">
+      <c r="H102" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="17" t="s">
+      <c r="I102" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="17" t="s">
+      <c r="J102" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K100" s="17" t="s">
+      <c r="K102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="17" t="s">
+      <c r="L102" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="M102" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N100" s="17" t="s">
+      <c r="N102" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O100" s="17" t="s">
+      <c r="O102" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P100" s="17" t="s">
+      <c r="P102" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q100" s="17" t="s">
+      <c r="Q102" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="17" t="s">
+      <c r="R102" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S100" s="17" t="s">
+      <c r="S102" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T100" s="17" t="s">
+      <c r="T102" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U100" s="17" t="s">
+      <c r="U102" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V100" s="17" t="s">
+      <c r="V102" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="W100" s="17" t="s">
+      <c r="W102" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X100" s="17" t="s">
+      <c r="X102" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y100" s="17" t="s">
+      <c r="Y102" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z100" s="17" t="s">
+      <c r="Z102" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA100" s="17" t="s">
+      <c r="AA102" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB100" s="17" t="s">
+      <c r="AB102" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC100" s="17" t="s">
+      <c r="AC102" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AD100" s="18" t="s">
+      <c r="AD102" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AE100" s="17" t="s">
+      <c r="AE102" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AF100" s="18" t="s">
+      <c r="AF102" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG100" s="17" t="s">
+      <c r="AG102" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH100" s="17" t="s">
+      <c r="AH102" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AI100" s="17" t="s">
+      <c r="AI102" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AJ100" s="17" t="s">
+      <c r="AJ102" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AK100" s="17" t="s">
+      <c r="AK102" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AL100" s="17" t="s">
+      <c r="AL102" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AM100" s="17" t="s">
+      <c r="AM102" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:43">
-      <c r="A101" s="19" t="s">
+    <row r="103" spans="1:43" ht="12.75">
+      <c r="A103" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="B101" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C101" s="20" t="s">
+      <c r="B103" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D101" s="20">
+      <c r="D103" s="20">
         <v>3</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E103" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="21">
+      <c r="F103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="21">
         <v>40</v>
       </c>
-      <c r="H101" s="20" t="s">
+      <c r="H103" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="I101" s="20">
-        <v>0</v>
-      </c>
-      <c r="J101" s="20">
-        <v>0</v>
-      </c>
-      <c r="K101" s="20">
-        <v>0</v>
-      </c>
-      <c r="L101" s="20">
-        <v>0</v>
-      </c>
-      <c r="M101" s="20">
-        <v>0</v>
-      </c>
-      <c r="N101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O101" s="20">
-        <v>0</v>
-      </c>
-      <c r="P101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R101" s="20" t="s">
+      <c r="I103" s="20">
+        <v>0</v>
+      </c>
+      <c r="J103" s="20">
+        <v>0</v>
+      </c>
+      <c r="K103" s="20">
+        <v>0</v>
+      </c>
+      <c r="L103" s="20">
+        <v>0</v>
+      </c>
+      <c r="M103" s="20">
+        <v>0</v>
+      </c>
+      <c r="N103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="20">
+        <v>0</v>
+      </c>
+      <c r="P103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="S101" s="20" t="s">
+      <c r="S103" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="T101" s="20" t="s">
+      <c r="T103" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="U101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V101" s="20">
-        <v>0</v>
-      </c>
-      <c r="W101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X101" s="20" t="s">
+      <c r="U103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" s="20">
+        <v>0</v>
+      </c>
+      <c r="W103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X103" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="Y101" s="20" t="s">
+      <c r="Y103" s="20" t="s">
         <v>774</v>
       </c>
-      <c r="Z101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK101" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM101" s="20" t="b">
+      <c r="Z103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK103" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM103" s="20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:43">
-      <c r="A102" s="19" t="s">
+    <row r="104" spans="1:43" ht="12.75">
+      <c r="A104" s="19" t="s">
         <v>775</v>
-      </c>
-      <c r="B102" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D102" s="20">
-        <v>8</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" s="21">
-        <v>25</v>
-      </c>
-      <c r="H102" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="I102" s="20">
-        <v>1</v>
-      </c>
-      <c r="J102" s="20">
-        <v>1</v>
-      </c>
-      <c r="K102" s="20">
-        <v>0</v>
-      </c>
-      <c r="L102" s="20">
-        <v>0</v>
-      </c>
-      <c r="M102" s="20">
-        <v>0</v>
-      </c>
-      <c r="N102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O102" s="20">
-        <v>0</v>
-      </c>
-      <c r="P102" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R102" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="S102" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="T102" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="U102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V102" s="20">
-        <v>0</v>
-      </c>
-      <c r="W102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X102" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="Y102" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="Z102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK102" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL102" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM102" s="20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:43">
-      <c r="A103" s="17" t="s">
-        <v>782</v>
-      </c>
-      <c r="B103" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>769</v>
-      </c>
-      <c r="D103" s="21">
-        <v>34</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="21">
-        <v>50</v>
-      </c>
-      <c r="H103" s="21" t="s">
-        <v>462</v>
-      </c>
-      <c r="I103" s="21">
-        <v>0</v>
-      </c>
-      <c r="J103" s="21">
-        <v>0</v>
-      </c>
-      <c r="K103" s="21">
-        <v>0</v>
-      </c>
-      <c r="L103" s="21">
-        <v>0</v>
-      </c>
-      <c r="M103" s="21">
-        <v>0</v>
-      </c>
-      <c r="N103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O103" s="21">
-        <v>0</v>
-      </c>
-      <c r="P103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R103" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="S103" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="T103" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="U103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="V103" s="21">
-        <v>0</v>
-      </c>
-      <c r="W103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="X103" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="Y103" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="Z103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK103" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL103" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM103" s="21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:43">
-      <c r="A104" s="19" t="s">
-        <v>788</v>
       </c>
       <c r="B104" s="20" t="b">
         <v>1</v>
@@ -32823,230 +32861,468 @@
         <v>769</v>
       </c>
       <c r="D104" s="20">
+        <v>8</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="21">
+        <v>25</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="I104" s="20">
+        <v>1</v>
+      </c>
+      <c r="J104" s="20">
+        <v>1</v>
+      </c>
+      <c r="K104" s="20">
+        <v>0</v>
+      </c>
+      <c r="L104" s="20">
+        <v>0</v>
+      </c>
+      <c r="M104" s="20">
+        <v>0</v>
+      </c>
+      <c r="N104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="20">
+        <v>0</v>
+      </c>
+      <c r="P104" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="S104" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="T104" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="U104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" s="20">
+        <v>0</v>
+      </c>
+      <c r="W104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X104" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y104" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK104" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" ht="12.75">
+      <c r="A105" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B105" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="D105" s="21">
+        <v>34</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="21">
+        <v>50</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="I105" s="21">
+        <v>0</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0</v>
+      </c>
+      <c r="K105" s="21">
+        <v>0</v>
+      </c>
+      <c r="L105" s="21">
+        <v>0</v>
+      </c>
+      <c r="M105" s="21">
+        <v>0</v>
+      </c>
+      <c r="N105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="21">
+        <v>0</v>
+      </c>
+      <c r="P105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="S105" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="T105" s="20" t="s">
+        <v>785</v>
+      </c>
+      <c r="U105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V105" s="21">
+        <v>0</v>
+      </c>
+      <c r="W105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X105" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y105" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="Z105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK105" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM105" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" ht="12.75">
+      <c r="A106" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B106" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D106" s="20">
         <v>55</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E106" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" s="21">
+      <c r="F106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="21">
         <v>50</v>
       </c>
-      <c r="H104" s="20" t="s">
+      <c r="H106" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I104" s="20">
-        <v>1</v>
-      </c>
-      <c r="J104" s="20">
-        <v>1</v>
-      </c>
-      <c r="K104" s="20">
-        <v>0</v>
-      </c>
-      <c r="L104" s="20">
-        <v>0</v>
-      </c>
-      <c r="M104" s="20">
-        <v>0</v>
-      </c>
-      <c r="N104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O104" s="20">
-        <v>0</v>
-      </c>
-      <c r="P104" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R104" s="20" t="s">
+      <c r="I106" s="20">
+        <v>1</v>
+      </c>
+      <c r="J106" s="20">
+        <v>1</v>
+      </c>
+      <c r="K106" s="20">
+        <v>0</v>
+      </c>
+      <c r="L106" s="20">
+        <v>0</v>
+      </c>
+      <c r="M106" s="20">
+        <v>0</v>
+      </c>
+      <c r="N106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" s="20">
+        <v>0</v>
+      </c>
+      <c r="P106" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="S104" s="20" t="s">
+      <c r="S106" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="T104" s="20" t="s">
+      <c r="T106" s="20" t="s">
         <v>791</v>
       </c>
-      <c r="U104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V104" s="20">
-        <v>0</v>
-      </c>
-      <c r="W104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X104" s="20" t="s">
+      <c r="U106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" s="20">
+        <v>0</v>
+      </c>
+      <c r="W106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X106" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="Y104" s="20" t="s">
+      <c r="Y106" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="Z104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK104" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL104" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM104" s="20" t="b">
+      <c r="Z106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK106" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM106" s="20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A105" s="19" t="s">
+    <row r="107" spans="1:43" ht="15.75" customHeight="1">
+      <c r="A107" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="B105" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C105" s="20" t="s">
+      <c r="B107" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="D105" s="20">
-        <v>1</v>
-      </c>
-      <c r="E105" s="20" t="s">
+      <c r="D107" s="20">
+        <v>1</v>
+      </c>
+      <c r="E107" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" s="21">
+      <c r="F107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="21">
         <v>100</v>
       </c>
-      <c r="H105" s="20" t="s">
+      <c r="H107" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I105" s="20">
-        <v>0</v>
-      </c>
-      <c r="J105" s="20">
-        <v>0</v>
-      </c>
-      <c r="K105" s="20">
-        <v>0</v>
-      </c>
-      <c r="L105" s="20">
-        <v>0</v>
-      </c>
-      <c r="M105" s="20">
-        <v>0</v>
-      </c>
-      <c r="N105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O105" s="20">
-        <v>0</v>
-      </c>
-      <c r="P105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R105" s="20" t="s">
+      <c r="I107" s="20">
+        <v>0</v>
+      </c>
+      <c r="J107" s="20">
+        <v>0</v>
+      </c>
+      <c r="K107" s="20">
+        <v>0</v>
+      </c>
+      <c r="L107" s="20">
+        <v>0</v>
+      </c>
+      <c r="M107" s="20">
+        <v>0</v>
+      </c>
+      <c r="N107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="20">
+        <v>0</v>
+      </c>
+      <c r="P107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="S105" s="20" t="s">
+      <c r="S107" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T105" s="20" t="s">
+      <c r="T107" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="U105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="V105" s="20">
-        <v>0</v>
-      </c>
-      <c r="W105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="X105" s="20" t="s">
+      <c r="U107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" s="20">
+        <v>0</v>
+      </c>
+      <c r="W107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X107" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Y105" s="20" t="s">
+      <c r="Y107" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="Z105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AI105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AK105" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL105" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM105" s="20" t="b">
+      <c r="Z107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="20" t="b">
         <v>0</v>
       </c>
     </row>
@@ -33072,13 +33348,14 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="6">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/AbilityInfo.xlsx
+++ b/AbilityInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Runescape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424FBF0E-B5AD-4BB1-BA45-1EDFDD6A259A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A035C-CCEE-43E5-9210-D5D696610B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20275,8 +20275,8 @@
   </sheetPr>
   <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24074,7 +24074,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" s="1" t="b">
         <v>1</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61" s="1" t="b">
         <v>0</v>
@@ -29962,7 +29962,7 @@
         <v>7</v>
       </c>
       <c r="M79" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N79" s="1" t="b">
         <v>1</v>
@@ -30986,7 +30986,7 @@
         <v>10</v>
       </c>
       <c r="M87" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N87" s="1" t="b">
         <v>1</v>

--- a/AbilityInfo.xlsx
+++ b/AbilityInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Runescape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8A035C-CCEE-43E5-9210-D5D696610B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E7EDE-BD57-4D0F-A289-944B6BE45060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="2970" windowWidth="37155" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20275,8 +20275,8 @@
   </sheetPr>
   <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14" s="5">
         <v>7</v>
@@ -22151,7 +22151,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5">
         <v>7</v>
@@ -24199,7 +24199,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M32" s="5">
         <v>7</v>
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M36" s="5">
         <v>7</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M39" s="5">
         <v>7</v>
@@ -25863,7 +25863,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M46" s="5">
         <v>7</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" s="5">
         <v>3</v>
@@ -26887,7 +26887,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M54" s="5">
         <v>3</v>
@@ -28295,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M65" s="5">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M70" s="5">
         <v>4</v>
@@ -29959,7 +29959,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M79" s="5">
         <v>4</v>
@@ -30983,7 +30983,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M87" s="5">
         <v>8</v>
@@ -32007,7 +32007,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M95" s="5">
         <v>7</v>
